--- a/profession_group.xlsx
+++ b/profession_group.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>anaemia_count</t>
+          <t>FALSE_count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>anaemia_percent</t>
+          <t>FALSE_percent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>no anaemia_count</t>
+          <t>TRUE_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>no anaemia_percent</t>
+          <t>TRUE_percent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>4.10958904109589</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="E2">
-        <v>5.263157894736842</v>
+        <v>4.054054054054054</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -426,16 +426,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>10.95890410958904</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>21.05263157894737</v>
+        <v>12.16216216216216</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -451,16 +451,16 @@
         </is>
       </c>
       <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="D4">
         <v>35</v>
       </c>
-      <c r="C4">
-        <v>47.94520547945205</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
       <c r="E4">
-        <v>42.10526315789473</v>
+        <v>47.2972972972973</v>
       </c>
       <c r="F4">
         <v>18</v>
@@ -471,16 +471,16 @@
     </row>
     <row r="5">
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="D5">
         <v>27</v>
       </c>
-      <c r="C5">
-        <v>36.98630136986301</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
       <c r="E5">
-        <v>31.57894736842105</v>
+        <v>36.48648648648648</v>
       </c>
       <c r="F5">
         <v>13</v>

--- a/profession_group.xlsx
+++ b/profession_group.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_count</t>
+          <t>anaemia_count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_percent</t>
+          <t>anaemia_percent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_count</t>
+          <t>no anaemia_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_percent</t>
+          <t>no anaemia_percent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4.10958904109589</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
       <c r="E2">
-        <v>4.054054054054054</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -426,16 +426,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>16.66666666666666</v>
+        <v>10.95890410958904</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>12.16216216216216</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -451,16 +451,16 @@
         </is>
       </c>
       <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>47.94520547945205</v>
+      </c>
+      <c r="D4">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="D4">
-        <v>35</v>
-      </c>
       <c r="E4">
-        <v>47.2972972972973</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="F4">
         <v>18</v>
@@ -471,16 +471,16 @@
     </row>
     <row r="5">
       <c r="B5">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>36.98630136986301</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="D5">
-        <v>27</v>
-      </c>
       <c r="E5">
-        <v>36.48648648648648</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="F5">
         <v>13</v>
